--- a/Notebooks/data/guesses.xlsx
+++ b/Notebooks/data/guesses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2482B4-3BD9-6142-B7B0-AC2B146E44C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDE95A-5D26-F041-9445-4F879FFD8BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53000" yWindow="3920" windowWidth="18780" windowHeight="13840" activeTab="4" xr2:uid="{CCB6CB7B-9FDF-6F49-A54C-67CC1529C46D}"/>
+    <workbookView xWindow="53000" yWindow="3920" windowWidth="18780" windowHeight="13840" activeTab="2" xr2:uid="{CCB6CB7B-9FDF-6F49-A54C-67CC1529C46D}"/>
   </bookViews>
   <sheets>
     <sheet name="ann1" sheetId="1" r:id="rId1"/>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F193B09-CD9A-EF4A-B79F-D85FA32A4B6E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,19 +831,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="C5">
-        <v>550</v>
+        <v>426</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="E5">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="F5">
-        <v>247</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C55013-2AD1-E447-BEB4-C4FCC313DABF}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
